--- a/tame/core_139/assessment_framework.xlsx
+++ b/tame/core_139/assessment_framework.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2 assessment'!$A$5:$BB$144</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +30,7 @@
   <authors>
     <author>Nick</author>
     <author>Nick Bailey</author>
+    <author>jm383x</author>
   </authors>
   <commentList>
     <comment ref="M5" authorId="0">
@@ -248,12 +249,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="E10" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jm383x:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Found something similar for year 1992. Nothing in the population index archive.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="424">
   <si>
     <t>Substantive domain</t>
   </si>
@@ -1522,13 +1547,16 @@
   </si>
   <si>
     <t>Reviewer</t>
+  </si>
+  <si>
+    <t>pdf found</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1579,6 +1607,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1956,31 +1997,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>337</v>
       </c>
@@ -1988,32 +2029,32 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>344</v>
       </c>
@@ -2021,7 +2062,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>352</v>
       </c>
@@ -2029,7 +2070,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>382</v>
       </c>
@@ -2043,12 +2084,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
@@ -2058,7 +2099,7 @@
     <col min="8" max="8" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>335</v>
       </c>
@@ -2068,11 +2109,11 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="str">
         <f>MID(C3,(FIND("(",C3)+1),4)</f>
         <v>1998</v>
@@ -2099,7 +2140,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A67" si="2">MID(C4,(FIND("(",C4)+1),4)</f>
         <v>2008</v>
@@ -2126,7 +2167,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="str">
         <f t="shared" si="2"/>
         <v>2000</v>
@@ -2153,7 +2194,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="str">
         <f t="shared" si="2"/>
         <v>2007</v>
@@ -2180,7 +2221,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="str">
         <f t="shared" si="2"/>
         <v>2007</v>
@@ -2207,7 +2248,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="str">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -2234,7 +2275,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="str">
         <f t="shared" si="2"/>
         <v>2003</v>
@@ -2261,7 +2302,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2288,7 +2329,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -2315,7 +2356,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -2342,7 +2383,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>2007</v>
@@ -2369,7 +2410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>2010</v>
@@ -2396,7 +2437,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>1991</v>
@@ -2423,7 +2464,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -2450,7 +2491,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>2001</v>
@@ -2477,7 +2518,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>1993</v>
@@ -2504,7 +2545,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2531,7 +2572,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>1995</v>
@@ -2558,7 +2599,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="str">
         <f t="shared" si="2"/>
         <v>1991</v>
@@ -2585,7 +2626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2612,7 +2653,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>2009</v>
@@ -2639,7 +2680,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2666,7 +2707,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="str">
         <f t="shared" si="2"/>
         <v>1991</v>
@@ -2693,7 +2734,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>1991</v>
@@ -2720,7 +2761,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>2006</v>
@@ -2747,7 +2788,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -2774,7 +2815,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>2010</v>
@@ -2801,7 +2842,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>2009</v>
@@ -2828,7 +2869,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>2010</v>
@@ -2855,7 +2896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -2882,7 +2923,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>2004</v>
@@ -2909,7 +2950,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>2007</v>
@@ -2936,7 +2977,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>2008</v>
@@ -2963,7 +3004,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>1994</v>
@@ -2990,7 +3031,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>2005</v>
@@ -3017,7 +3058,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>2009</v>
@@ -3044,7 +3085,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="str">
         <f t="shared" si="2"/>
         <v>2005</v>
@@ -3071,7 +3112,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="str">
         <f t="shared" si="2"/>
         <v>1988</v>
@@ -3098,7 +3139,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="str">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -3125,7 +3166,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="str">
         <f t="shared" si="2"/>
         <v>2002</v>
@@ -3152,7 +3193,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="str">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -3179,7 +3220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="str">
         <f t="shared" si="2"/>
         <v>2009</v>
@@ -3206,7 +3247,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="str">
         <f t="shared" si="2"/>
         <v>2005</v>
@@ -3233,7 +3274,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="str">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -3260,7 +3301,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="str">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -3287,7 +3328,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="str">
         <f t="shared" si="2"/>
         <v>1988</v>
@@ -3314,7 +3355,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="str">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -3341,7 +3382,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="str">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -3368,7 +3409,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="str">
         <f t="shared" si="2"/>
         <v>2007</v>
@@ -3395,7 +3436,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="str">
         <f t="shared" si="2"/>
         <v>2009</v>
@@ -3422,7 +3463,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="str">
         <f t="shared" si="2"/>
         <v>1992</v>
@@ -3449,7 +3490,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="str">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -3476,7 +3517,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="str">
         <f t="shared" si="2"/>
         <v>1993</v>
@@ -3503,7 +3544,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="str">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -3530,7 +3571,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="str">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -3557,7 +3598,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="str">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -3584,7 +3625,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="str">
         <f t="shared" si="2"/>
         <v>2005</v>
@@ -3611,7 +3652,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="str">
         <f t="shared" si="2"/>
         <v>1988</v>
@@ -3638,7 +3679,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="str">
         <f t="shared" si="2"/>
         <v>2000</v>
@@ -3665,7 +3706,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" t="str">
         <f t="shared" si="2"/>
         <v>1993</v>
@@ -3692,7 +3733,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" t="str">
         <f t="shared" si="2"/>
         <v>1988</v>
@@ -3719,7 +3760,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" t="str">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -3746,7 +3787,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="str">
         <f t="shared" si="2"/>
         <v>2009</v>
@@ -3773,7 +3814,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="str">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -3800,7 +3841,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="str">
         <f t="shared" si="2"/>
         <v>2006</v>
@@ -3827,7 +3868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" t="str">
         <f t="shared" ref="A68:A131" si="8">MID(C68,(FIND("(",C68)+1),4)</f>
         <v>2005</v>
@@ -3854,7 +3895,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" t="str">
         <f t="shared" si="8"/>
         <v>2007</v>
@@ -3881,7 +3922,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="str">
         <f t="shared" si="8"/>
         <v>2009</v>
@@ -3908,7 +3949,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" t="str">
         <f t="shared" si="8"/>
         <v>2010</v>
@@ -3935,7 +3976,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="str">
         <f t="shared" si="8"/>
         <v>2005</v>
@@ -3962,7 +4003,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" t="str">
         <f t="shared" si="8"/>
         <v>2010</v>
@@ -3989,7 +4030,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="str">
         <f t="shared" si="8"/>
         <v>2007</v>
@@ -4016,7 +4057,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" t="str">
         <f t="shared" si="8"/>
         <v>2002</v>
@@ -4043,7 +4084,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" t="str">
         <f t="shared" si="8"/>
         <v>2003</v>
@@ -4070,7 +4111,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="str">
         <f t="shared" si="8"/>
         <v>1998</v>
@@ -4097,7 +4138,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" t="str">
         <f t="shared" si="8"/>
         <v>2008</v>
@@ -4124,7 +4165,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="str">
         <f t="shared" si="8"/>
         <v>2006</v>
@@ -4151,7 +4192,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" t="str">
         <f t="shared" si="8"/>
         <v>1991</v>
@@ -4178,7 +4219,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="str">
         <f t="shared" si="8"/>
         <v>2007</v>
@@ -4205,7 +4246,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="str">
         <f t="shared" si="8"/>
         <v>1988</v>
@@ -4232,7 +4273,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="str">
         <f t="shared" si="8"/>
         <v>1989</v>
@@ -4259,7 +4300,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="str">
         <f t="shared" si="8"/>
         <v>2002</v>
@@ -4286,7 +4327,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="str">
         <f t="shared" si="8"/>
         <v>2000</v>
@@ -4313,7 +4354,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="str">
         <f t="shared" si="8"/>
         <v>2010</v>
@@ -4340,7 +4381,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="str">
         <f t="shared" si="8"/>
         <v>2007</v>
@@ -4367,7 +4408,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="str">
         <f t="shared" si="8"/>
         <v>2007</v>
@@ -4394,7 +4435,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="str">
         <f t="shared" si="8"/>
         <v>2012</v>
@@ -4421,7 +4462,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="str">
         <f t="shared" si="8"/>
         <v>2012</v>
@@ -4448,7 +4489,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="str">
         <f t="shared" si="8"/>
         <v>2004</v>
@@ -4475,7 +4516,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="str">
         <f t="shared" si="8"/>
         <v>2004</v>
@@ -4502,7 +4543,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="str">
         <f t="shared" si="8"/>
         <v>2000</v>
@@ -4529,7 +4570,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="str">
         <f t="shared" si="8"/>
         <v>1997</v>
@@ -4556,7 +4597,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="str">
         <f t="shared" si="8"/>
         <v>2011</v>
@@ -4583,7 +4624,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="str">
         <f t="shared" si="8"/>
         <v>2009</v>
@@ -4610,7 +4651,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" t="str">
         <f t="shared" si="8"/>
         <v>2013</v>
@@ -4637,7 +4678,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="str">
         <f t="shared" si="8"/>
         <v>2014</v>
@@ -4664,7 +4705,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" t="str">
         <f t="shared" si="8"/>
         <v>2004</v>
@@ -4691,7 +4732,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" t="str">
         <f t="shared" si="8"/>
         <v>2014</v>
@@ -4718,7 +4759,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="str">
         <f t="shared" si="8"/>
         <v>2009</v>
@@ -4745,7 +4786,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" t="str">
         <f t="shared" si="8"/>
         <v>2009</v>
@@ -4772,7 +4813,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" t="str">
         <f t="shared" si="8"/>
         <v>1999</v>
@@ -4799,7 +4840,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" t="str">
         <f t="shared" si="8"/>
         <v>2006</v>
@@ -4826,7 +4867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" t="str">
         <f t="shared" si="8"/>
         <v>2011</v>
@@ -4853,7 +4894,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" t="str">
         <f t="shared" si="8"/>
         <v>1989</v>
@@ -4880,7 +4921,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" t="str">
         <f t="shared" si="8"/>
         <v>2004</v>
@@ -4907,7 +4948,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" t="str">
         <f t="shared" si="8"/>
         <v>2005</v>
@@ -4934,7 +4975,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" t="str">
         <f t="shared" si="8"/>
         <v>2014</v>
@@ -4961,7 +5002,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" t="str">
         <f t="shared" si="8"/>
         <v>2014</v>
@@ -4988,7 +5029,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" t="str">
         <f t="shared" si="8"/>
         <v>1989</v>
@@ -5015,7 +5056,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" t="str">
         <f t="shared" si="8"/>
         <v>1988</v>
@@ -5042,7 +5083,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" t="str">
         <f t="shared" si="8"/>
         <v>2005</v>
@@ -5069,7 +5110,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" t="str">
         <f t="shared" si="8"/>
         <v>1994</v>
@@ -5096,7 +5137,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" t="str">
         <f t="shared" si="8"/>
         <v>2005</v>
@@ -5123,7 +5164,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" t="str">
         <f t="shared" si="8"/>
         <v>2003</v>
@@ -5150,7 +5191,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" t="str">
         <f t="shared" si="8"/>
         <v>1990</v>
@@ -5177,7 +5218,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" t="str">
         <f t="shared" si="8"/>
         <v>2013</v>
@@ -5204,7 +5245,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" t="str">
         <f t="shared" si="8"/>
         <v>1993</v>
@@ -5231,7 +5272,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" t="str">
         <f t="shared" si="8"/>
         <v>2000</v>
@@ -5258,7 +5299,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" t="str">
         <f t="shared" si="8"/>
         <v>2009</v>
@@ -5285,7 +5326,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" t="str">
         <f t="shared" si="8"/>
         <v>1992</v>
@@ -5312,7 +5353,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" t="str">
         <f t="shared" si="8"/>
         <v>1997</v>
@@ -5339,7 +5380,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" t="str">
         <f t="shared" si="8"/>
         <v>1998</v>
@@ -5366,7 +5407,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" t="str">
         <f t="shared" si="8"/>
         <v>2013</v>
@@ -5393,7 +5434,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" t="str">
         <f t="shared" si="8"/>
         <v>2005</v>
@@ -5420,7 +5461,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" t="str">
         <f t="shared" si="8"/>
         <v>2013</v>
@@ -5447,7 +5488,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" t="str">
         <f t="shared" si="8"/>
         <v>1995</v>
@@ -5474,7 +5515,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" t="str">
         <f t="shared" si="8"/>
         <v>2005</v>
@@ -5501,7 +5542,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" t="str">
         <f t="shared" si="8"/>
         <v>1998</v>
@@ -5528,7 +5569,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" t="str">
         <f t="shared" si="8"/>
         <v>1999</v>
@@ -5555,7 +5596,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" t="str">
         <f t="shared" ref="A132:A141" si="14">MID(C132,(FIND("(",C132)+1),4)</f>
         <v>2002</v>
@@ -5582,7 +5623,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" t="str">
         <f t="shared" si="14"/>
         <v>2003</v>
@@ -5609,7 +5650,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" t="str">
         <f t="shared" si="14"/>
         <v>2004</v>
@@ -5636,7 +5677,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" t="str">
         <f t="shared" si="14"/>
         <v>1998</v>
@@ -5663,7 +5704,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" t="str">
         <f t="shared" si="14"/>
         <v>2010</v>
@@ -5690,7 +5731,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" t="str">
         <f t="shared" si="14"/>
         <v>2012</v>
@@ -5717,7 +5758,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" t="str">
         <f t="shared" si="14"/>
         <v>1997</v>
@@ -5744,7 +5785,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" t="str">
         <f t="shared" si="14"/>
         <v>2004</v>
@@ -5771,7 +5812,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" t="str">
         <f t="shared" si="14"/>
         <v>2004</v>
@@ -5798,7 +5839,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" t="str">
         <f t="shared" si="14"/>
         <v>2011</v>
@@ -5835,21 +5876,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="AZ6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="AV6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="BA19" sqref="BA19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="6" customWidth="1"/>
@@ -5874,18 +5914,18 @@
     <col min="53" max="53" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54">
       <c r="B1" s="1" t="s">
         <v>356</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54">
       <c r="B2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" s="4" customFormat="1" ht="45">
       <c r="A4" s="21"/>
       <c r="B4" s="3" t="s">
         <v>25</v>
@@ -5973,12 +6013,15 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" s="5" customFormat="1" ht="51">
       <c r="A5" s="5" t="s">
         <v>422</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>349</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>345</v>
@@ -6101,7 +6144,7 @@
       </c>
       <c r="AZ5" s="8"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54">
       <c r="A6" t="str">
         <f>IF(ISODD(B6),"Jon", "Nick")</f>
         <v>Jon</v>
@@ -6115,8 +6158,8 @@
       <c r="D6" t="s">
         <v>213</v>
       </c>
-      <c r="E6" t="s">
-        <v>350</v>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -6205,7 +6248,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54">
       <c r="A7" t="str">
         <f t="shared" ref="A7:A70" si="0">IF(ISODD(B7),"Jon", "Nick")</f>
         <v>Nick</v>
@@ -6219,8 +6262,8 @@
       <c r="D7" t="s">
         <v>214</v>
       </c>
-      <c r="E7" t="s">
-        <v>350</v>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -6276,7 +6319,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -6290,8 +6333,8 @@
       <c r="D8" t="s">
         <v>215</v>
       </c>
-      <c r="E8" t="s">
-        <v>350</v>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -6347,7 +6390,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -6361,8 +6404,8 @@
       <c r="D9" t="s">
         <v>216</v>
       </c>
-      <c r="E9" t="s">
-        <v>350</v>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -6418,7 +6461,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -6432,8 +6475,8 @@
       <c r="D10" t="s">
         <v>217</v>
       </c>
-      <c r="E10" t="s">
-        <v>350</v>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -6489,7 +6532,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -6503,8 +6546,8 @@
       <c r="D11" t="s">
         <v>218</v>
       </c>
-      <c r="E11" t="s">
-        <v>350</v>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -6560,7 +6603,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -6574,8 +6617,8 @@
       <c r="D12" t="s">
         <v>213</v>
       </c>
-      <c r="E12" t="s">
-        <v>350</v>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -6631,7 +6674,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -6645,8 +6688,8 @@
       <c r="D13" t="s">
         <v>219</v>
       </c>
-      <c r="E13" t="s">
-        <v>350</v>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -6702,7 +6745,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -6716,8 +6759,8 @@
       <c r="D14" t="s">
         <v>220</v>
       </c>
-      <c r="E14" t="s">
-        <v>350</v>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -6773,7 +6816,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -6787,8 +6830,8 @@
       <c r="D15" t="s">
         <v>221</v>
       </c>
-      <c r="E15" t="s">
-        <v>350</v>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -6844,7 +6887,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -6858,8 +6901,8 @@
       <c r="D16" t="s">
         <v>222</v>
       </c>
-      <c r="E16" t="s">
-        <v>350</v>
+      <c r="E16">
+        <v>1</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -6915,7 +6958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -6929,8 +6972,8 @@
       <c r="D17" t="s">
         <v>223</v>
       </c>
-      <c r="E17" t="s">
-        <v>350</v>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -6986,7 +7029,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -7000,8 +7043,8 @@
       <c r="D18" t="s">
         <v>224</v>
       </c>
-      <c r="E18" t="s">
-        <v>350</v>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -7057,7 +7100,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -7128,7 +7171,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -7199,7 +7242,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -7270,7 +7313,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -7341,7 +7384,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -7412,7 +7455,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -7483,7 +7526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -7554,7 +7597,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -7625,7 +7668,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -7696,7 +7739,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -7767,7 +7810,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -7838,7 +7881,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -7909,7 +7952,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -7980,7 +8023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -8051,7 +8094,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:53">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -8122,7 +8165,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:53">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -8193,7 +8236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:53">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -8264,7 +8307,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:53">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -8335,7 +8378,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:53">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -8406,7 +8449,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:53">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -8477,7 +8520,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:53">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -8548,7 +8591,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:53">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -8619,7 +8662,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:53">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -8690,7 +8733,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:53">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -8761,7 +8804,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:53">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -8832,7 +8875,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:53">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -8903,7 +8946,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:53">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -8974,7 +9017,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:53">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -9045,7 +9088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:53">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -9116,7 +9159,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:53">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -9187,7 +9230,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:53">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -9258,7 +9301,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:53">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -9329,7 +9372,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:53">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -9400,7 +9443,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:53">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -9471,7 +9514,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:53">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -9542,7 +9585,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:53">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -9613,7 +9656,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:53">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -9684,7 +9727,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:53">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -9755,7 +9798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:53">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -9826,7 +9869,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:53">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -9897,7 +9940,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:53">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -9968,7 +10011,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:53">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -10039,7 +10082,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:53">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -10110,7 +10153,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:53">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -10181,7 +10224,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:53">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -10252,7 +10295,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:53">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -10323,7 +10366,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:53">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -10394,7 +10437,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:53">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -10465,7 +10508,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:53">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -10536,7 +10579,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:53">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -10607,7 +10650,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:53">
       <c r="A69" t="str">
         <f t="shared" si="0"/>
         <v>Nick</v>
@@ -10678,7 +10721,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:53">
       <c r="A70" t="str">
         <f t="shared" si="0"/>
         <v>Jon</v>
@@ -10749,7 +10792,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:53">
       <c r="A71" t="str">
         <f t="shared" ref="A71:A134" si="2">IF(ISODD(B71),"Jon", "Nick")</f>
         <v>Nick</v>
@@ -10820,7 +10863,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:53">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -10891,7 +10934,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:53">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -10962,7 +11005,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:53">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -11033,7 +11076,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:53">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -11104,7 +11147,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:53">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -11175,7 +11218,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:53">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -11246,7 +11289,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:53">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -11317,7 +11360,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:53">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -11388,7 +11431,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:53">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -11459,7 +11502,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:53">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -11530,7 +11573,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:53">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -11601,7 +11644,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:53">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -11672,7 +11715,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:53">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -11743,7 +11786,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:53">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -11814,7 +11857,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:53">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -11885,7 +11928,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:53">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -11956,7 +11999,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:53">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -12027,7 +12070,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:53">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -12098,7 +12141,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:53">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -12169,7 +12212,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:53">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -12240,7 +12283,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:53">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -12311,7 +12354,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:53">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -12382,7 +12425,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:53">
       <c r="A94" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -12453,7 +12496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:53">
       <c r="A95" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -12524,7 +12567,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:53">
       <c r="A96" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -12595,7 +12638,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:53">
       <c r="A97" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -12666,7 +12709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:53">
       <c r="A98" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -12737,7 +12780,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:53">
       <c r="A99" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -12808,7 +12851,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:53">
       <c r="A100" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -12879,7 +12922,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:53">
       <c r="A101" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -12950,7 +12993,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="102" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:53">
       <c r="A102" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -13021,7 +13064,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:53">
       <c r="A103" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -13092,7 +13135,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:53">
       <c r="A104" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -13163,7 +13206,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:53">
       <c r="A105" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -13234,7 +13277,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:53">
       <c r="A106" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -13305,7 +13348,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="107" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:53">
       <c r="A107" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -13376,7 +13419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:53">
       <c r="A108" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -13447,7 +13490,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:53">
       <c r="A109" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -13518,7 +13561,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:53">
       <c r="A110" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -13589,7 +13632,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:53">
       <c r="A111" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -13660,7 +13703,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:53">
       <c r="A112" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -13731,7 +13774,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:53">
       <c r="A113" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -13802,7 +13845,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="114" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:53">
       <c r="A114" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -13873,7 +13916,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:53">
       <c r="A115" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -13944,7 +13987,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:53">
       <c r="A116" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -14015,7 +14058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:53">
       <c r="A117" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -14086,7 +14129,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:53">
       <c r="A118" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -14157,7 +14200,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="119" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:53">
       <c r="A119" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -14228,7 +14271,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:53">
       <c r="A120" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -14299,7 +14342,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:53">
       <c r="A121" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -14370,7 +14413,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="122" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:53">
       <c r="A122" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -14441,7 +14484,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:53">
       <c r="A123" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -14512,7 +14555,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="124" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:53">
       <c r="A124" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -14583,7 +14626,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="125" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:53">
       <c r="A125" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -14654,7 +14697,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:53">
       <c r="A126" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -14725,7 +14768,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:53">
       <c r="A127" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -14796,7 +14839,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="128" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:53">
       <c r="A128" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -14867,7 +14910,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:53">
       <c r="A129" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -14938,7 +14981,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:53">
       <c r="A130" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -15009,7 +15052,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="131" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:53">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -15080,7 +15123,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:53">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -15151,7 +15194,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:53">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>Nick</v>
@@ -15222,7 +15265,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="134" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:53">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>Jon</v>
@@ -15293,7 +15336,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:53">
       <c r="A135" t="str">
         <f t="shared" ref="A135:A144" si="4">IF(ISODD(B135),"Jon", "Nick")</f>
         <v>Nick</v>
@@ -15364,7 +15407,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:53">
       <c r="A136" t="str">
         <f t="shared" si="4"/>
         <v>Jon</v>
@@ -15435,7 +15478,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="137" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:53">
       <c r="A137" t="str">
         <f t="shared" si="4"/>
         <v>Nick</v>
@@ -15506,7 +15549,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:53">
       <c r="A138" t="str">
         <f t="shared" si="4"/>
         <v>Jon</v>
@@ -15577,7 +15620,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:53">
       <c r="A139" t="str">
         <f t="shared" si="4"/>
         <v>Nick</v>
@@ -15648,7 +15691,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="140" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:53">
       <c r="A140" t="str">
         <f t="shared" si="4"/>
         <v>Jon</v>
@@ -15719,7 +15762,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="141" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:53">
       <c r="A141" t="str">
         <f t="shared" si="4"/>
         <v>Nick</v>
@@ -15790,7 +15833,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="142" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:53">
       <c r="A142" t="str">
         <f t="shared" si="4"/>
         <v>Jon</v>
@@ -15861,7 +15904,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:53">
       <c r="A143" t="str">
         <f t="shared" si="4"/>
         <v>Nick</v>
@@ -15932,7 +15975,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="144" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:53">
       <c r="A144" t="str">
         <f t="shared" si="4"/>
         <v>Jon</v>
@@ -16003,7 +16046,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="145" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:52">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="F145" s="2"/>
@@ -16054,7 +16097,7 @@
       <c r="AY145" s="2"/>
       <c r="AZ145" s="16"/>
     </row>
-    <row r="146" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:52">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="F146" s="2"/>
@@ -16105,7 +16148,7 @@
       <c r="AY146" s="2"/>
       <c r="AZ146" s="16"/>
     </row>
-    <row r="147" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:52">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="F147" s="2"/>
@@ -16156,7 +16199,7 @@
       <c r="AY147" s="2"/>
       <c r="AZ147" s="16"/>
     </row>
-    <row r="148" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:52">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="F148" s="2"/>
@@ -16207,7 +16250,7 @@
       <c r="AY148" s="2"/>
       <c r="AZ148" s="16"/>
     </row>
-    <row r="149" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:52">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="F149" s="2"/>
@@ -16258,7 +16301,7 @@
       <c r="AY149" s="2"/>
       <c r="AZ149" s="16"/>
     </row>
-    <row r="150" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:52">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="F150" s="2"/>
@@ -16309,7 +16352,7 @@
       <c r="AY150" s="2"/>
       <c r="AZ150" s="16"/>
     </row>
-    <row r="151" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:52">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="F151" s="2"/>
@@ -16360,7 +16403,7 @@
       <c r="AY151" s="2"/>
       <c r="AZ151" s="16"/>
     </row>
-    <row r="152" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:52">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="F152" s="2"/>
@@ -16411,7 +16454,7 @@
       <c r="AY152" s="2"/>
       <c r="AZ152" s="16"/>
     </row>
-    <row r="153" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:52">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="F153" s="2"/>
@@ -16462,7 +16505,7 @@
       <c r="AY153" s="2"/>
       <c r="AZ153" s="16"/>
     </row>
-    <row r="154" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:52">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="F154" s="2"/>
@@ -16513,7 +16556,7 @@
       <c r="AY154" s="2"/>
       <c r="AZ154" s="16"/>
     </row>
-    <row r="155" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:52">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="F155" s="2"/>
@@ -16566,11 +16609,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:BB144">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Jon"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="0"/>
   </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="AG4:AH4"/>
@@ -16585,14 +16624,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -16602,12 +16641,12 @@
     <col min="7" max="7" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -16630,7 +16669,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
@@ -16653,7 +16692,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>364</v>
       </c>
@@ -16673,7 +16712,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>366</v>
       </c>
@@ -16693,7 +16732,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>372</v>
       </c>
@@ -16713,7 +16752,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>358</v>
       </c>
@@ -16733,7 +16772,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>387</v>
       </c>
@@ -16750,7 +16789,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="B13" t="s">
         <v>390</v>
       </c>
@@ -16770,7 +16809,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>359</v>
       </c>
@@ -16790,7 +16829,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="B18" t="s">
         <v>359</v>
       </c>
@@ -16807,7 +16846,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="B19" t="s">
         <v>397</v>
       </c>
@@ -16824,7 +16863,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>400</v>
       </c>
@@ -16844,7 +16883,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="B24" t="s">
         <v>403</v>
       </c>
@@ -16861,7 +16900,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="B25" t="s">
         <v>405</v>
       </c>
@@ -16878,7 +16917,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>407</v>
       </c>
@@ -16898,7 +16937,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="B30" t="s">
         <v>412</v>
       </c>
@@ -16915,7 +16954,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="B31" t="s">
         <v>416</v>
       </c>
@@ -16932,7 +16971,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="B32" t="s">
         <v>419</v>
       </c>
@@ -16949,7 +16988,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" s="20" customFormat="1">
       <c r="B33" s="20" t="s">
         <v>420</v>
       </c>
@@ -16972,24 +17011,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>381</v>
       </c>
@@ -16997,17 +17036,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>380</v>
       </c>

--- a/tame/core_139/assessment_framework.xlsx
+++ b/tame/core_139/assessment_framework.xlsx
@@ -273,12 +273,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="E19" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jm383x:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Book review</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E62" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jm383x:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Duplicate of 056</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="424">
   <si>
     <t>Substantive domain</t>
   </si>
@@ -1997,7 +2045,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5880,10 +5928,10 @@
   <dimension ref="A1:BB155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="AV6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="AE56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BA19" sqref="BA19"/>
+      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7114,8 +7162,8 @@
       <c r="D19" t="s">
         <v>224</v>
       </c>
-      <c r="E19" t="s">
-        <v>350</v>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -7185,8 +7233,8 @@
       <c r="D20" t="s">
         <v>225</v>
       </c>
-      <c r="E20" t="s">
-        <v>350</v>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -7256,8 +7304,8 @@
       <c r="D21" t="s">
         <v>226</v>
       </c>
-      <c r="E21" t="s">
-        <v>350</v>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -7327,8 +7375,8 @@
       <c r="D22" t="s">
         <v>227</v>
       </c>
-      <c r="E22" t="s">
-        <v>350</v>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -7398,8 +7446,8 @@
       <c r="D23" t="s">
         <v>228</v>
       </c>
-      <c r="E23" t="s">
-        <v>350</v>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -7469,8 +7517,8 @@
       <c r="D24" t="s">
         <v>229</v>
       </c>
-      <c r="E24" t="s">
-        <v>350</v>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -7540,8 +7588,8 @@
       <c r="D25" t="s">
         <v>230</v>
       </c>
-      <c r="E25" t="s">
-        <v>350</v>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -7611,8 +7659,8 @@
       <c r="D26" t="s">
         <v>231</v>
       </c>
-      <c r="E26" t="s">
-        <v>350</v>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -7682,8 +7730,8 @@
       <c r="D27" t="s">
         <v>232</v>
       </c>
-      <c r="E27" t="s">
-        <v>350</v>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -7753,8 +7801,8 @@
       <c r="D28" t="s">
         <v>233</v>
       </c>
-      <c r="E28" t="s">
-        <v>350</v>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -7824,8 +7872,8 @@
       <c r="D29" t="s">
         <v>234</v>
       </c>
-      <c r="E29" t="s">
-        <v>350</v>
+      <c r="E29">
+        <v>1</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -7895,8 +7943,8 @@
       <c r="D30" t="s">
         <v>235</v>
       </c>
-      <c r="E30" t="s">
-        <v>350</v>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -7966,8 +8014,8 @@
       <c r="D31" t="s">
         <v>236</v>
       </c>
-      <c r="E31" t="s">
-        <v>350</v>
+      <c r="E31">
+        <v>1</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -8037,8 +8085,8 @@
       <c r="D32" t="s">
         <v>228</v>
       </c>
-      <c r="E32" t="s">
-        <v>350</v>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -8108,8 +8156,8 @@
       <c r="D33" t="s">
         <v>237</v>
       </c>
-      <c r="E33" t="s">
-        <v>350</v>
+      <c r="E33">
+        <v>1</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -8179,8 +8227,8 @@
       <c r="D34" t="s">
         <v>238</v>
       </c>
-      <c r="E34" t="s">
-        <v>350</v>
+      <c r="E34">
+        <v>1</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -8250,8 +8298,8 @@
       <c r="D35" t="s">
         <v>239</v>
       </c>
-      <c r="E35" t="s">
-        <v>350</v>
+      <c r="E35">
+        <v>1</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -8321,8 +8369,8 @@
       <c r="D36" t="s">
         <v>240</v>
       </c>
-      <c r="E36" t="s">
-        <v>350</v>
+      <c r="E36">
+        <v>0</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -8392,8 +8440,8 @@
       <c r="D37" t="s">
         <v>227</v>
       </c>
-      <c r="E37" t="s">
-        <v>350</v>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -8463,8 +8511,8 @@
       <c r="D38" t="s">
         <v>241</v>
       </c>
-      <c r="E38" t="s">
-        <v>350</v>
+      <c r="E38">
+        <v>1</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -8534,8 +8582,8 @@
       <c r="D39" t="s">
         <v>242</v>
       </c>
-      <c r="E39" t="s">
-        <v>350</v>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -8605,8 +8653,8 @@
       <c r="D40" t="s">
         <v>243</v>
       </c>
-      <c r="E40" t="s">
-        <v>350</v>
+      <c r="E40">
+        <v>1</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -8676,8 +8724,8 @@
       <c r="D41" t="s">
         <v>227</v>
       </c>
-      <c r="E41" t="s">
-        <v>350</v>
+      <c r="E41">
+        <v>1</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -8747,8 +8795,8 @@
       <c r="D42" t="s">
         <v>244</v>
       </c>
-      <c r="E42" t="s">
-        <v>350</v>
+      <c r="E42">
+        <v>1</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -8818,8 +8866,8 @@
       <c r="D43" t="s">
         <v>245</v>
       </c>
-      <c r="E43" t="s">
-        <v>350</v>
+      <c r="E43">
+        <v>1</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -8889,8 +8937,8 @@
       <c r="D44" t="s">
         <v>246</v>
       </c>
-      <c r="E44" t="s">
-        <v>350</v>
+      <c r="E44">
+        <v>1</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -8960,8 +9008,8 @@
       <c r="D45" t="s">
         <v>244</v>
       </c>
-      <c r="E45" t="s">
-        <v>350</v>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -9031,8 +9079,8 @@
       <c r="D46" t="s">
         <v>247</v>
       </c>
-      <c r="E46" t="s">
-        <v>350</v>
+      <c r="E46">
+        <v>1</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -9102,8 +9150,8 @@
       <c r="D47" t="s">
         <v>248</v>
       </c>
-      <c r="E47" t="s">
-        <v>350</v>
+      <c r="E47">
+        <v>1</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -9173,8 +9221,8 @@
       <c r="D48" t="s">
         <v>249</v>
       </c>
-      <c r="E48" t="s">
-        <v>350</v>
+      <c r="E48">
+        <v>1</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -9244,8 +9292,8 @@
       <c r="D49" t="s">
         <v>250</v>
       </c>
-      <c r="E49" t="s">
-        <v>350</v>
+      <c r="E49">
+        <v>1</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -9315,8 +9363,8 @@
       <c r="D50" t="s">
         <v>251</v>
       </c>
-      <c r="E50" t="s">
-        <v>350</v>
+      <c r="E50">
+        <v>1</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -9386,8 +9434,8 @@
       <c r="D51" t="s">
         <v>252</v>
       </c>
-      <c r="E51" t="s">
-        <v>350</v>
+      <c r="E51">
+        <v>1</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -9457,8 +9505,8 @@
       <c r="D52" t="s">
         <v>253</v>
       </c>
-      <c r="E52" t="s">
-        <v>350</v>
+      <c r="E52">
+        <v>1</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -9528,8 +9576,8 @@
       <c r="D53" t="s">
         <v>254</v>
       </c>
-      <c r="E53" t="s">
-        <v>350</v>
+      <c r="E53">
+        <v>1</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -9599,8 +9647,8 @@
       <c r="D54" t="s">
         <v>255</v>
       </c>
-      <c r="E54" t="s">
-        <v>350</v>
+      <c r="E54">
+        <v>1</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -9670,8 +9718,8 @@
       <c r="D55" t="s">
         <v>244</v>
       </c>
-      <c r="E55" t="s">
-        <v>350</v>
+      <c r="E55">
+        <v>1</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -9741,8 +9789,8 @@
       <c r="D56" t="s">
         <v>256</v>
       </c>
-      <c r="E56" t="s">
-        <v>350</v>
+      <c r="E56">
+        <v>1</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -9812,8 +9860,8 @@
       <c r="D57" t="s">
         <v>257</v>
       </c>
-      <c r="E57" t="s">
-        <v>350</v>
+      <c r="E57">
+        <v>1</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -9883,8 +9931,8 @@
       <c r="D58" t="s">
         <v>258</v>
       </c>
-      <c r="E58" t="s">
-        <v>350</v>
+      <c r="E58">
+        <v>1</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -9954,8 +10002,8 @@
       <c r="D59" t="s">
         <v>244</v>
       </c>
-      <c r="E59" t="s">
-        <v>350</v>
+      <c r="E59">
+        <v>1</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -10025,8 +10073,8 @@
       <c r="D60" t="s">
         <v>259</v>
       </c>
-      <c r="E60" t="s">
-        <v>350</v>
+      <c r="E60">
+        <v>1</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -10096,8 +10144,8 @@
       <c r="D61" t="s">
         <v>260</v>
       </c>
-      <c r="E61" t="s">
-        <v>350</v>
+      <c r="E61">
+        <v>1</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -10167,8 +10215,8 @@
       <c r="D62" t="s">
         <v>260</v>
       </c>
-      <c r="E62" t="s">
-        <v>350</v>
+      <c r="E62">
+        <v>0</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -10238,8 +10286,8 @@
       <c r="D63" t="s">
         <v>261</v>
       </c>
-      <c r="E63" t="s">
-        <v>350</v>
+      <c r="E63">
+        <v>1</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -10309,8 +10357,8 @@
       <c r="D64" t="s">
         <v>262</v>
       </c>
-      <c r="E64" t="s">
-        <v>350</v>
+      <c r="E64">
+        <v>1</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -10380,8 +10428,8 @@
       <c r="D65" t="s">
         <v>244</v>
       </c>
-      <c r="E65" t="s">
-        <v>350</v>
+      <c r="E65">
+        <v>1</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -10451,8 +10499,8 @@
       <c r="D66" t="s">
         <v>263</v>
       </c>
-      <c r="E66" t="s">
-        <v>350</v>
+      <c r="E66">
+        <v>1</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -10522,8 +10570,8 @@
       <c r="D67" t="s">
         <v>264</v>
       </c>
-      <c r="E67" t="s">
-        <v>350</v>
+      <c r="E67">
+        <v>1</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -10593,8 +10641,8 @@
       <c r="D68" t="s">
         <v>265</v>
       </c>
-      <c r="E68" t="s">
-        <v>350</v>
+      <c r="E68">
+        <v>1</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -10664,8 +10712,8 @@
       <c r="D69" t="s">
         <v>266</v>
       </c>
-      <c r="E69" t="s">
-        <v>350</v>
+      <c r="E69">
+        <v>0</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -10735,8 +10783,8 @@
       <c r="D70" t="s">
         <v>267</v>
       </c>
-      <c r="E70" t="s">
-        <v>350</v>
+      <c r="E70">
+        <v>1</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -10806,8 +10854,8 @@
       <c r="D71" t="s">
         <v>268</v>
       </c>
-      <c r="E71" t="s">
-        <v>350</v>
+      <c r="E71">
+        <v>1</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -10877,8 +10925,8 @@
       <c r="D72" t="s">
         <v>269</v>
       </c>
-      <c r="E72" t="s">
-        <v>350</v>
+      <c r="E72">
+        <v>1</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -10948,8 +10996,8 @@
       <c r="D73" t="s">
         <v>270</v>
       </c>
-      <c r="E73" t="s">
-        <v>350</v>
+      <c r="E73">
+        <v>1</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -11019,8 +11067,8 @@
       <c r="D74" t="s">
         <v>262</v>
       </c>
-      <c r="E74" t="s">
-        <v>350</v>
+      <c r="E74">
+        <v>1</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -11090,8 +11138,8 @@
       <c r="D75" t="s">
         <v>271</v>
       </c>
-      <c r="E75" t="s">
-        <v>350</v>
+      <c r="E75">
+        <v>1</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>

--- a/tame/core_139/assessment_framework.xlsx
+++ b/tame/core_139/assessment_framework.xlsx
@@ -321,12 +321,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="E90" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jm383x:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Book</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E103" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jm383x:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Book section</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="424">
   <si>
     <t>Substantive domain</t>
   </si>
@@ -2045,7 +2093,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5928,10 +5976,10 @@
   <dimension ref="A1:BB155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="AE56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="AE95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
+      <selection pane="bottomRight" activeCell="AJ101" sqref="AJ101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11209,8 +11257,8 @@
       <c r="D76" t="s">
         <v>272</v>
       </c>
-      <c r="E76" t="s">
-        <v>350</v>
+      <c r="E76">
+        <v>1</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -11280,8 +11328,8 @@
       <c r="D77" t="s">
         <v>273</v>
       </c>
-      <c r="E77" t="s">
-        <v>350</v>
+      <c r="E77">
+        <v>1</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -11351,8 +11399,8 @@
       <c r="D78" t="s">
         <v>274</v>
       </c>
-      <c r="E78" t="s">
-        <v>350</v>
+      <c r="E78">
+        <v>1</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -11422,8 +11470,8 @@
       <c r="D79" t="s">
         <v>224</v>
       </c>
-      <c r="E79" t="s">
-        <v>350</v>
+      <c r="E79">
+        <v>1</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -11493,8 +11541,8 @@
       <c r="D80" t="s">
         <v>275</v>
       </c>
-      <c r="E80" t="s">
-        <v>350</v>
+      <c r="E80">
+        <v>1</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -11564,8 +11612,8 @@
       <c r="D81" t="s">
         <v>276</v>
       </c>
-      <c r="E81" t="s">
-        <v>350</v>
+      <c r="E81">
+        <v>0</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -11635,8 +11683,8 @@
       <c r="D82" t="s">
         <v>277</v>
       </c>
-      <c r="E82" t="s">
-        <v>350</v>
+      <c r="E82">
+        <v>1</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -11706,8 +11754,8 @@
       <c r="D83" t="s">
         <v>278</v>
       </c>
-      <c r="E83" t="s">
-        <v>350</v>
+      <c r="E83">
+        <v>1</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -11777,8 +11825,8 @@
       <c r="D84" t="s">
         <v>279</v>
       </c>
-      <c r="E84" t="s">
-        <v>350</v>
+      <c r="E84">
+        <v>1</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -11848,8 +11896,8 @@
       <c r="D85" t="s">
         <v>280</v>
       </c>
-      <c r="E85" t="s">
-        <v>350</v>
+      <c r="E85">
+        <v>1</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -11919,8 +11967,8 @@
       <c r="D86" t="s">
         <v>259</v>
       </c>
-      <c r="E86" t="s">
-        <v>350</v>
+      <c r="E86">
+        <v>1</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -11990,8 +12038,8 @@
       <c r="D87" t="s">
         <v>281</v>
       </c>
-      <c r="E87" t="s">
-        <v>350</v>
+      <c r="E87">
+        <v>1</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -12061,8 +12109,8 @@
       <c r="D88" t="s">
         <v>269</v>
       </c>
-      <c r="E88" t="s">
-        <v>350</v>
+      <c r="E88">
+        <v>1</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -12132,8 +12180,8 @@
       <c r="D89" t="s">
         <v>282</v>
       </c>
-      <c r="E89" t="s">
-        <v>350</v>
+      <c r="E89">
+        <v>1</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -12203,8 +12251,8 @@
       <c r="D90" t="s">
         <v>283</v>
       </c>
-      <c r="E90" t="s">
-        <v>350</v>
+      <c r="E90">
+        <v>0</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -12274,8 +12322,8 @@
       <c r="D91" t="s">
         <v>284</v>
       </c>
-      <c r="E91" t="s">
-        <v>350</v>
+      <c r="E91">
+        <v>1</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -12345,8 +12393,8 @@
       <c r="D92" t="s">
         <v>285</v>
       </c>
-      <c r="E92" t="s">
-        <v>350</v>
+      <c r="E92">
+        <v>1</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -12416,8 +12464,8 @@
       <c r="D93" t="s">
         <v>286</v>
       </c>
-      <c r="E93" t="s">
-        <v>350</v>
+      <c r="E93">
+        <v>1</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -12487,8 +12535,8 @@
       <c r="D94" t="s">
         <v>287</v>
       </c>
-      <c r="E94" t="s">
-        <v>350</v>
+      <c r="E94">
+        <v>1</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -12558,8 +12606,8 @@
       <c r="D95" t="s">
         <v>288</v>
       </c>
-      <c r="E95" t="s">
-        <v>350</v>
+      <c r="E95">
+        <v>1</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -12629,8 +12677,8 @@
       <c r="D96" t="s">
         <v>289</v>
       </c>
-      <c r="E96" t="s">
-        <v>350</v>
+      <c r="E96">
+        <v>1</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -12700,8 +12748,8 @@
       <c r="D97" t="s">
         <v>290</v>
       </c>
-      <c r="E97" t="s">
-        <v>350</v>
+      <c r="E97">
+        <v>1</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -12771,8 +12819,8 @@
       <c r="D98" t="s">
         <v>291</v>
       </c>
-      <c r="E98" t="s">
-        <v>350</v>
+      <c r="E98">
+        <v>1</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -12842,8 +12890,8 @@
       <c r="D99" t="s">
         <v>292</v>
       </c>
-      <c r="E99" t="s">
-        <v>350</v>
+      <c r="E99">
+        <v>1</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -12913,8 +12961,8 @@
       <c r="D100" t="s">
         <v>293</v>
       </c>
-      <c r="E100" t="s">
-        <v>350</v>
+      <c r="E100">
+        <v>1</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -12984,8 +13032,8 @@
       <c r="D101" t="s">
         <v>294</v>
       </c>
-      <c r="E101" t="s">
-        <v>350</v>
+      <c r="E101">
+        <v>1</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -13055,8 +13103,8 @@
       <c r="D102" t="s">
         <v>269</v>
       </c>
-      <c r="E102" t="s">
-        <v>350</v>
+      <c r="E102">
+        <v>1</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -13126,8 +13174,8 @@
       <c r="D103" t="s">
         <v>295</v>
       </c>
-      <c r="E103" t="s">
-        <v>350</v>
+      <c r="E103">
+        <v>0</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -13197,8 +13245,8 @@
       <c r="D104" t="s">
         <v>296</v>
       </c>
-      <c r="E104" t="s">
-        <v>350</v>
+      <c r="E104">
+        <v>0</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -13268,8 +13316,8 @@
       <c r="D105" t="s">
         <v>297</v>
       </c>
-      <c r="E105" t="s">
-        <v>350</v>
+      <c r="E105">
+        <v>1</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>

--- a/tame/core_139/assessment_framework.xlsx
+++ b/tame/core_139/assessment_framework.xlsx
@@ -369,12 +369,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="E112" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jm383x:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Book section</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E126" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jm383x:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+html page</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E144" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jm383x:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+html download</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="423">
   <si>
     <t>Substantive domain</t>
   </si>
@@ -1424,9 +1496,6 @@
   </si>
   <si>
     <t>[full reference at end]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>score each reference and note all measures clearly defined</t>
@@ -2093,7 +2162,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2155,23 +2224,23 @@
         <v>344</v>
       </c>
       <c r="B11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" t="s">
         <v>352</v>
-      </c>
-      <c r="B13" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B15" t="s">
         <v>382</v>
-      </c>
-      <c r="B15" t="s">
-        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -5976,10 +6045,10 @@
   <dimension ref="A1:BB155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="AE95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AJ101" sqref="AJ101"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6012,7 +6081,7 @@
   <sheetData>
     <row r="1" spans="1:54">
       <c r="B1" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -6111,13 +6180,13 @@
     </row>
     <row r="5" spans="1:54" s="5" customFormat="1" ht="51">
       <c r="A5" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>349</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>345</v>
@@ -6159,7 +6228,7 @@
       </c>
       <c r="U5" s="8"/>
       <c r="V5" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>30</v>
@@ -6198,16 +6267,16 @@
         <v>16</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AL5" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="AM5" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="AM5" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="AN5" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AO5" s="5" t="s">
         <v>17</v>
@@ -6341,7 +6410,7 @@
         <v>127</v>
       </c>
       <c r="BB6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:54">
@@ -13387,8 +13456,8 @@
       <c r="D106" t="s">
         <v>298</v>
       </c>
-      <c r="E106" t="s">
-        <v>350</v>
+      <c r="E106">
+        <v>1</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -13458,8 +13527,8 @@
       <c r="D107" t="s">
         <v>299</v>
       </c>
-      <c r="E107" t="s">
-        <v>350</v>
+      <c r="E107">
+        <v>1</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -13529,8 +13598,8 @@
       <c r="D108" t="s">
         <v>300</v>
       </c>
-      <c r="E108" t="s">
-        <v>350</v>
+      <c r="E108">
+        <v>1</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -13600,8 +13669,8 @@
       <c r="D109" t="s">
         <v>301</v>
       </c>
-      <c r="E109" t="s">
-        <v>350</v>
+      <c r="E109">
+        <v>1</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -13671,8 +13740,8 @@
       <c r="D110" t="s">
         <v>269</v>
       </c>
-      <c r="E110" t="s">
-        <v>350</v>
+      <c r="E110">
+        <v>1</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -13742,8 +13811,8 @@
       <c r="D111" t="s">
         <v>302</v>
       </c>
-      <c r="E111" t="s">
-        <v>350</v>
+      <c r="E111">
+        <v>1</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -13813,8 +13882,8 @@
       <c r="D112" t="s">
         <v>303</v>
       </c>
-      <c r="E112" t="s">
-        <v>350</v>
+      <c r="E112">
+        <v>0</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -13884,8 +13953,8 @@
       <c r="D113" t="s">
         <v>304</v>
       </c>
-      <c r="E113" t="s">
-        <v>350</v>
+      <c r="E113">
+        <v>1</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -13955,8 +14024,8 @@
       <c r="D114" t="s">
         <v>305</v>
       </c>
-      <c r="E114" t="s">
-        <v>350</v>
+      <c r="E114">
+        <v>1</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -14026,8 +14095,8 @@
       <c r="D115" t="s">
         <v>306</v>
       </c>
-      <c r="E115" t="s">
-        <v>350</v>
+      <c r="E115">
+        <v>1</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -14097,8 +14166,8 @@
       <c r="D116" t="s">
         <v>307</v>
       </c>
-      <c r="E116" t="s">
-        <v>350</v>
+      <c r="E116">
+        <v>1</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -14168,8 +14237,8 @@
       <c r="D117" t="s">
         <v>308</v>
       </c>
-      <c r="E117" t="s">
-        <v>350</v>
+      <c r="E117">
+        <v>1</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -14239,8 +14308,8 @@
       <c r="D118" t="s">
         <v>309</v>
       </c>
-      <c r="E118" t="s">
-        <v>350</v>
+      <c r="E118">
+        <v>1</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -14310,8 +14379,8 @@
       <c r="D119" t="s">
         <v>310</v>
       </c>
-      <c r="E119" t="s">
-        <v>350</v>
+      <c r="E119">
+        <v>1</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -14381,8 +14450,8 @@
       <c r="D120" t="s">
         <v>311</v>
       </c>
-      <c r="E120" t="s">
-        <v>350</v>
+      <c r="E120">
+        <v>1</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -14452,8 +14521,8 @@
       <c r="D121" t="s">
         <v>264</v>
       </c>
-      <c r="E121" t="s">
-        <v>350</v>
+      <c r="E121">
+        <v>1</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -14523,8 +14592,8 @@
       <c r="D122" t="s">
         <v>312</v>
       </c>
-      <c r="E122" t="s">
-        <v>350</v>
+      <c r="E122">
+        <v>1</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -14594,8 +14663,8 @@
       <c r="D123" t="s">
         <v>313</v>
       </c>
-      <c r="E123" t="s">
-        <v>350</v>
+      <c r="E123">
+        <v>0</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -14665,8 +14734,8 @@
       <c r="D124" t="s">
         <v>314</v>
       </c>
-      <c r="E124" t="s">
-        <v>350</v>
+      <c r="E124">
+        <v>1</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -14736,8 +14805,8 @@
       <c r="D125" t="s">
         <v>315</v>
       </c>
-      <c r="E125" t="s">
-        <v>350</v>
+      <c r="E125">
+        <v>1</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -14807,8 +14876,8 @@
       <c r="D126" t="s">
         <v>316</v>
       </c>
-      <c r="E126" t="s">
-        <v>350</v>
+      <c r="E126">
+        <v>1</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -14878,8 +14947,8 @@
       <c r="D127" t="s">
         <v>317</v>
       </c>
-      <c r="E127" t="s">
-        <v>350</v>
+      <c r="E127">
+        <v>1</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -14949,8 +15018,8 @@
       <c r="D128" t="s">
         <v>318</v>
       </c>
-      <c r="E128" t="s">
-        <v>350</v>
+      <c r="E128">
+        <v>1</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -15020,8 +15089,8 @@
       <c r="D129" t="s">
         <v>319</v>
       </c>
-      <c r="E129" t="s">
-        <v>350</v>
+      <c r="E129">
+        <v>0</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -15091,8 +15160,8 @@
       <c r="D130" t="s">
         <v>320</v>
       </c>
-      <c r="E130" t="s">
-        <v>350</v>
+      <c r="E130">
+        <v>1</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -15162,8 +15231,8 @@
       <c r="D131" t="s">
         <v>321</v>
       </c>
-      <c r="E131" t="s">
-        <v>350</v>
+      <c r="E131">
+        <v>1</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -15233,8 +15302,8 @@
       <c r="D132" t="s">
         <v>322</v>
       </c>
-      <c r="E132" t="s">
-        <v>350</v>
+      <c r="E132">
+        <v>0</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -15304,8 +15373,8 @@
       <c r="D133" t="s">
         <v>323</v>
       </c>
-      <c r="E133" t="s">
-        <v>350</v>
+      <c r="E133">
+        <v>1</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -15375,8 +15444,8 @@
       <c r="D134" t="s">
         <v>324</v>
       </c>
-      <c r="E134" t="s">
-        <v>350</v>
+      <c r="E134">
+        <v>1</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -15446,8 +15515,8 @@
       <c r="D135" t="s">
         <v>325</v>
       </c>
-      <c r="E135" t="s">
-        <v>350</v>
+      <c r="E135">
+        <v>1</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -15517,8 +15586,8 @@
       <c r="D136" t="s">
         <v>326</v>
       </c>
-      <c r="E136" t="s">
-        <v>350</v>
+      <c r="E136">
+        <v>1</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -15588,8 +15657,8 @@
       <c r="D137" t="s">
         <v>327</v>
       </c>
-      <c r="E137" t="s">
-        <v>350</v>
+      <c r="E137">
+        <v>0</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -15659,8 +15728,8 @@
       <c r="D138" t="s">
         <v>328</v>
       </c>
-      <c r="E138" t="s">
-        <v>350</v>
+      <c r="E138">
+        <v>1</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -15730,8 +15799,8 @@
       <c r="D139" t="s">
         <v>227</v>
       </c>
-      <c r="E139" t="s">
-        <v>350</v>
+      <c r="E139">
+        <v>1</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -15801,8 +15870,8 @@
       <c r="D140" t="s">
         <v>329</v>
       </c>
-      <c r="E140" t="s">
-        <v>350</v>
+      <c r="E140">
+        <v>1</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -15872,8 +15941,8 @@
       <c r="D141" t="s">
         <v>330</v>
       </c>
-      <c r="E141" t="s">
-        <v>350</v>
+      <c r="E141">
+        <v>1</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
@@ -15943,8 +16012,8 @@
       <c r="D142" t="s">
         <v>331</v>
       </c>
-      <c r="E142" t="s">
-        <v>350</v>
+      <c r="E142">
+        <v>0</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -16014,8 +16083,8 @@
       <c r="D143" t="s">
         <v>332</v>
       </c>
-      <c r="E143" t="s">
-        <v>350</v>
+      <c r="E143">
+        <v>1</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -16085,8 +16154,8 @@
       <c r="D144" t="s">
         <v>333</v>
       </c>
-      <c r="E144" t="s">
-        <v>350</v>
+      <c r="E144">
+        <v>1</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -16750,19 +16819,19 @@
         <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1">
@@ -16782,18 +16851,18 @@
         <v>284</v>
       </c>
       <c r="G4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" t="s">
         <v>364</v>
-      </c>
-      <c r="D5" t="s">
-        <v>365</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
@@ -16802,21 +16871,21 @@
         <v>285</v>
       </c>
       <c r="G5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" t="s">
         <v>369</v>
-      </c>
-      <c r="D6" t="s">
-        <v>370</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -16825,15 +16894,15 @@
         <v>285</v>
       </c>
       <c r="G6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" t="s">
         <v>372</v>
-      </c>
-      <c r="D7" t="s">
-        <v>373</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -16842,21 +16911,21 @@
         <v>286</v>
       </c>
       <c r="G7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H7" t="s">
         <v>374</v>
-      </c>
-      <c r="H7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -16865,15 +16934,15 @@
         <v>288</v>
       </c>
       <c r="G11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
+        <v>386</v>
+      </c>
+      <c r="D12" t="s">
         <v>387</v>
-      </c>
-      <c r="D12" t="s">
-        <v>388</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
@@ -16882,15 +16951,15 @@
         <v>288</v>
       </c>
       <c r="G12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
@@ -16899,21 +16968,21 @@
         <v>289</v>
       </c>
       <c r="G13" t="s">
+        <v>390</v>
+      </c>
+      <c r="H13" t="s">
         <v>391</v>
-      </c>
-      <c r="H13" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D17" t="s">
         <v>393</v>
-      </c>
-      <c r="D17" t="s">
-        <v>394</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -16922,15 +16991,15 @@
         <v>289</v>
       </c>
       <c r="G17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
@@ -16939,15 +17008,15 @@
         <v>290</v>
       </c>
       <c r="G18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" t="s">
+        <v>396</v>
+      </c>
+      <c r="D19" t="s">
         <v>397</v>
-      </c>
-      <c r="D19" t="s">
-        <v>398</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
@@ -16956,18 +17025,18 @@
         <v>291</v>
       </c>
       <c r="G19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
+        <v>399</v>
+      </c>
+      <c r="B23" t="s">
+        <v>399</v>
+      </c>
+      <c r="D23" t="s">
         <v>400</v>
-      </c>
-      <c r="B23" t="s">
-        <v>400</v>
-      </c>
-      <c r="D23" t="s">
-        <v>401</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
@@ -16976,15 +17045,15 @@
         <v>292</v>
       </c>
       <c r="G23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D24" t="s">
         <v>403</v>
-      </c>
-      <c r="D24" t="s">
-        <v>404</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
@@ -16993,15 +17062,15 @@
         <v>292</v>
       </c>
       <c r="G24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="B25" t="s">
+        <v>404</v>
+      </c>
+      <c r="D25" t="s">
         <v>405</v>
-      </c>
-      <c r="D25" t="s">
-        <v>406</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
@@ -17010,18 +17079,18 @@
         <v>293</v>
       </c>
       <c r="G25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B29" t="s">
+        <v>408</v>
+      </c>
+      <c r="D29" t="s">
         <v>409</v>
-      </c>
-      <c r="D29" t="s">
-        <v>410</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
@@ -17030,15 +17099,15 @@
         <v>294</v>
       </c>
       <c r="G29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="B30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E30" t="s">
         <v>40</v>
@@ -17047,15 +17116,15 @@
         <v>295</v>
       </c>
       <c r="G30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E31" t="s">
         <v>40</v>
@@ -17064,15 +17133,15 @@
         <v>295</v>
       </c>
       <c r="G31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="B32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E32" t="s">
         <v>40</v>
@@ -17081,15 +17150,15 @@
         <v>296</v>
       </c>
       <c r="G32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="2:7" s="20" customFormat="1">
       <c r="B33" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>40</v>
@@ -17098,7 +17167,7 @@
         <v>297</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -17121,30 +17190,30 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
